--- a/Spring_2022/radInteractions/hw3Stuff.xlsx
+++ b/Spring_2022/radInteractions/hw3Stuff.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\school\Spring_2022\radInteractions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD3F7719-4CDA-43F3-AAC8-77BC8D23B37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434EA60D-AC37-489B-86AC-A70CA82329FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8585" yWindow="1675" windowWidth="9560" windowHeight="7235" xr2:uid="{CA7E665F-7C62-4C54-AC8C-FA50FEE8E11B}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{CA7E665F-7C62-4C54-AC8C-FA50FEE8E11B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,36 +34,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="9">
   <si>
-    <t>ro</t>
+    <t>A</t>
   </si>
   <si>
-    <t>z</t>
+    <t>um</t>
   </si>
   <si>
-    <t>q</t>
+    <t>range</t>
   </si>
   <si>
-    <t>a</t>
+    <t>mg/cm3</t>
   </si>
   <si>
-    <t>beta</t>
+    <t>mg/mm3</t>
   </si>
   <si>
-    <t>wmax</t>
+    <t>keV</t>
   </si>
   <si>
-    <t>I</t>
+    <t>MeV</t>
   </si>
   <si>
-    <t>e</t>
+    <t>energy</t>
   </si>
   <si>
-    <t>mc2</t>
-  </si>
-  <si>
-    <t>gama</t>
+    <t>dEdx</t>
   </si>
 </sst>
 </file>
@@ -98,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +114,1452 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bragg He in water</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>36.200499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.182299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.164500000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.146900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.129600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.1126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.095799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.079300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.063099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.031399999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.993000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.9559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.885300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.851500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.818800000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.786900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.755800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.695900000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.6387</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.583800000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.531100000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.4803</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.431200000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.07</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.82</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.71</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.61</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31.77</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.34</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30.44</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.97</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28.990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.48</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27.94</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.83</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25.65</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.08</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20.62</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18.73</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>34.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76.62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>122.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>134.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>139.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>144.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>149.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>153.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>184.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>199.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>211.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>226.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>231.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>234.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>236.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>233.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>228.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>222.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>216.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>209.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>203.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>196.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>190.6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>184.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>179.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>173.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>164.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>153.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>144.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>122.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>116.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>111.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>98.24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>91.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3FE-49DD-82AD-1756D013FDB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1490959360"/>
+        <c:axId val="2117272320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1490959360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (um)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117272320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2117272320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>dE/dx</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1490959360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93662</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>398462</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6CBF5F-CBDA-448A-A398-DA3A47309A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,73 +1859,1870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259A0C6D-674C-4DCF-8ADB-6EB6E7E23BDC}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="D2">
+        <v>1895</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
+      <c r="F2">
+        <f>D2/10000</f>
+        <v>0.1895</v>
+      </c>
+      <c r="G2">
+        <f>F$73-F2</f>
+        <v>36.200499999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36.74</v>
+      </c>
+      <c r="D3">
+        <v>2077</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="0">D3/10000</f>
+        <v>0.2077</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">F$73-F3</f>
+        <v>36.182299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>38.42</v>
+      </c>
+      <c r="D4">
+        <v>2255</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>36.164500000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40.04</v>
+      </c>
+      <c r="D5">
+        <v>2431</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>36.146900000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41.61</v>
+      </c>
+      <c r="D6">
+        <v>2604</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>36.129600000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43.12</v>
+      </c>
+      <c r="D7">
+        <v>2774</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>36.1126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44.58</v>
+      </c>
+      <c r="D8">
+        <v>2942</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>36.095799999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>46.01</v>
+      </c>
+      <c r="D9">
+        <v>3107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>36.079300000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>47.39</v>
+      </c>
+      <c r="D10">
+        <v>3269</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>36.063099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50.06</v>
+      </c>
+      <c r="D11">
+        <v>3586</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>36.031399999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>22.5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>53.23</v>
+      </c>
+      <c r="D12">
+        <v>3970</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>35.993000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>56.24</v>
+      </c>
+      <c r="D13">
+        <v>4341</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>35.9559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>27.5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>59.12</v>
+      </c>
+      <c r="D14">
+        <v>4700</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>35.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="D15">
+        <v>5047</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>35.885300000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>32.5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="D16">
+        <v>5385</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>35.851500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D17">
+        <v>5712</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>35.818800000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>37.5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>69.59</v>
+      </c>
+      <c r="D18">
+        <v>6031</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>35.786900000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <v>6342</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>35.755800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>76.62</v>
+      </c>
+      <c r="D20">
+        <v>6941</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>35.695900000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="D21">
+        <v>7513</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.75129999999999997</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>35.6387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>85.2</v>
+      </c>
+      <c r="D22">
+        <v>8062</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>35.583800000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>89.22</v>
+      </c>
+      <c r="D23">
+        <v>8589</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.8589</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>35.531100000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>93.09</v>
+      </c>
+      <c r="D24">
+        <v>9097</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>35.4803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>96.82</v>
+      </c>
+      <c r="D25">
+        <v>9588</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>35.431200000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>103.9</v>
+      </c>
+      <c r="D26">
+        <v>1.05</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>D26</f>
+        <v>1.05</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>35.340000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>110.6</v>
+      </c>
+      <c r="D27">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F73" si="2">D27</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>116.9</v>
+      </c>
+      <c r="D28">
+        <v>1.22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1.22</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>35.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A29">
+        <v>110</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>122.9</v>
+      </c>
+      <c r="D29">
+        <v>1.3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30">
+        <v>120</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="D30">
+        <v>1.38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1.38</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31">
+        <v>130</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>134.1</v>
+      </c>
+      <c r="D31">
+        <v>1.45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>1.45</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>34.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A32">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>139.4</v>
+      </c>
+      <c r="D32">
+        <v>1.53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>1.53</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A33">
+        <v>150</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>144.4</v>
+      </c>
+      <c r="D33">
+        <v>1.59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1.59</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A34">
+        <v>160</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="D34">
+        <v>1.66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>1.66</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>34.730000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A35">
+        <v>170</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="D35">
+        <v>1.72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>1.72</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>34.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A36">
+        <v>180</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="D36">
+        <v>1.79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1.79</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>166.6</v>
+      </c>
+      <c r="D37">
+        <v>1.91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1.91</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>34.480000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A38">
+        <v>225</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>176.1</v>
+      </c>
+      <c r="D38">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>34.340000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A39">
+        <v>250</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>184.7</v>
+      </c>
+      <c r="D39">
+        <v>2.19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>2.19</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A40">
+        <v>275</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>192.4</v>
+      </c>
+      <c r="D40">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>34.07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A41">
+        <v>300</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>199.4</v>
+      </c>
+      <c r="D41">
+        <v>2.44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>2.44</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>33.950000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A42">
+        <v>325</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>205.6</v>
+      </c>
+      <c r="D42">
+        <v>2.57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>2.57</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>33.82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A43">
+        <v>350</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>211.1</v>
+      </c>
+      <c r="D43">
+        <v>2.68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>2.68</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>33.71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A44">
+        <v>375</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>215.9</v>
+      </c>
+      <c r="D44">
+        <v>2.8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>33.590000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A45">
+        <v>400</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>220.1</v>
+      </c>
+      <c r="D45">
+        <v>2.91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>2.91</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>33.480000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A46">
+        <v>450</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>226.9</v>
+      </c>
+      <c r="D46">
+        <v>3.14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>3.14</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A47">
+        <v>500</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>231.7</v>
+      </c>
+      <c r="D47">
+        <v>3.35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>3.35</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>33.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A48">
+        <v>550</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>234.7</v>
+      </c>
+      <c r="D48">
+        <v>3.57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>3.57</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>32.82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A49">
+        <v>600</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>236.4</v>
+      </c>
+      <c r="D49">
+        <v>3.78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>3.78</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>32.61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A50">
+        <v>650</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>236.9</v>
+      </c>
+      <c r="D50">
+        <v>3.99</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>3.99</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A51">
+        <v>700</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>236.5</v>
+      </c>
+      <c r="D51">
+        <v>4.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>32.19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A52">
+        <v>800</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>233.5</v>
+      </c>
+      <c r="D52">
+        <v>4.62</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>4.62</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>31.77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A53">
+        <v>900</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>228.6</v>
+      </c>
+      <c r="D53">
+        <v>5.05</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>5.05</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>31.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>222.7</v>
+      </c>
+      <c r="D54">
+        <v>5.49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>5.49</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>216.3</v>
+      </c>
+      <c r="D55">
+        <v>5.95</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>5.95</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A56">
+        <v>1.2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1">
+        <v>209.6</v>
+      </c>
+      <c r="D56">
+        <v>6.42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>6.42</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A57">
+        <v>1.3</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>203.1</v>
+      </c>
+      <c r="D57">
+        <v>6.9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>6.9</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>29.490000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A58">
+        <v>1.4</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>196.7</v>
+      </c>
+      <c r="D58">
+        <v>7.4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>28.990000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A59">
+        <v>1.5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>190.6</v>
+      </c>
+      <c r="D59">
+        <v>7.91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>7.91</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>28.48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A60">
+        <v>1.6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>184.7</v>
+      </c>
+      <c r="D60">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A61">
+        <v>1.7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <v>179.2</v>
+      </c>
+      <c r="D61">
+        <v>8.99</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>8.99</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A62">
+        <v>1.8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>173.9</v>
+      </c>
+      <c r="D62">
+        <v>9.56</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>9.56</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1">
+        <v>164.3</v>
+      </c>
+      <c r="D63">
+        <v>10.74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>10.74</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A64">
+        <v>2.25</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <v>153.6</v>
+      </c>
+      <c r="D64">
+        <v>12.31</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>12.31</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>24.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A65">
+        <v>2.5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="D65">
+        <v>13.99</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>13.99</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A66">
+        <v>2.75</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>136</v>
+      </c>
+      <c r="D66">
+        <v>15.77</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>15.77</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="D67">
+        <v>17.66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>17.66</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G73" si="3">F$73-F67</f>
+        <v>18.73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A68">
+        <v>3.25</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>122.3</v>
+      </c>
+      <c r="D68">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>16.740000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A69">
+        <v>3.5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>116.4</v>
+      </c>
+      <c r="D69">
+        <v>21.74</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>21.74</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>14.650000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A70">
+        <v>3.75</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1">
+        <v>111.2</v>
+      </c>
+      <c r="D70">
+        <v>23.94</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>23.94</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="D71">
+        <v>26.23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>26.23</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A72">
+        <v>4.5</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1">
+        <v>98.24</v>
+      </c>
+      <c r="D72">
+        <v>31.11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>31.11</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>5.2800000000000011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="D73">
+        <v>36.39</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>36.39</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="B74" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97989EA3-439A-4990-BDE3-A7FE382A1CE7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1">
+        <f>19.34*1000</f>
+        <v>19340</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <f>A1/1000</f>
+        <v>19.34</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <f>(1-(I2/(I2+(H2/D2))))^0.5</f>
-        <v>6.7674242282186339E-2</v>
-      </c>
-      <c r="F2">
-        <f>2*I2*(J2*E2)^2</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <f>931.5</f>
-        <v>931.5</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <f>500/5/5/A2</f>
+        <v>1.0341261633919339</v>
       </c>
     </row>
   </sheetData>
